--- a/CBS/Data.xlsx
+++ b/CBS/Data.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\CBS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9750"/>
+    <workbookView xWindow="13660" yWindow="1200" windowWidth="23220" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -81,6 +79,12 @@
   </si>
   <si>
     <t>Monkey Ladder</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -190,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,7 +406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,33 +414,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="5.1640625" customWidth="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
@@ -474,7 +478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,10 +531,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
       <c r="F3">
         <v>3</v>
       </c>
@@ -568,10 +584,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
       <c r="F4">
         <v>6</v>
       </c>
@@ -609,9 +637,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -650,9 +690,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>86</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -691,9 +743,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -732,9 +796,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
       </c>
       <c r="F8">
         <v>25</v>
@@ -773,9 +849,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -814,10 +902,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
       <c r="F10">
         <v>-1</v>
       </c>
@@ -855,10 +955,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
       <c r="F11">
         <v>4</v>
       </c>
@@ -896,10 +1008,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>83</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
       <c r="F12">
         <v>-6</v>
       </c>
@@ -937,10 +1061,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
       <c r="F13">
         <v>11</v>
       </c>
@@ -978,10 +1114,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>26</v>
+      </c>
       <c r="F14">
         <v>6</v>
       </c>
@@ -1019,10 +1167,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
       <c r="F15">
         <v>-2</v>
       </c>
@@ -1060,10 +1220,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
       <c r="F16">
         <v>1</v>
       </c>
@@ -1101,10 +1273,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>24</v>
+      </c>
       <c r="F17">
         <v>11</v>
       </c>
@@ -1142,10 +1326,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
       <c r="F18">
         <v>33</v>
       </c>
@@ -1183,10 +1379,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>91</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
       <c r="F19">
         <v>5</v>
       </c>
@@ -1224,10 +1432,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
       <c r="F20">
         <v>-6</v>
       </c>
@@ -1265,10 +1485,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>87</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -1306,9 +1538,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -1332,10 +1576,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>73</v>
+      </c>
+      <c r="D23">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
       <c r="F23">
         <v>19</v>
       </c>
@@ -1373,10 +1629,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
       <c r="F24">
         <v>25</v>
       </c>
@@ -1414,10 +1682,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
       <c r="F25">
         <v>3</v>
       </c>
@@ -1455,10 +1735,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="F26">
         <v>18</v>
       </c>
@@ -1496,10 +1788,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
       <c r="F27">
         <v>25</v>
       </c>
@@ -1537,10 +1841,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
       <c r="F28">
         <v>14</v>
       </c>
@@ -1578,10 +1894,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>92</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
       <c r="F29">
         <v>-3</v>
       </c>
@@ -1619,10 +1947,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>86</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
       <c r="F30">
         <v>-2</v>
       </c>
@@ -1660,10 +2000,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>86</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
       <c r="F31">
         <v>0</v>
       </c>
@@ -1701,10 +2053,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>92</v>
+      </c>
+      <c r="D32">
+        <v>23</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
       <c r="F32">
         <v>2</v>
       </c>
@@ -1742,10 +2106,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>83</v>
+      </c>
+      <c r="D33">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
       <c r="F33">
         <v>16</v>
       </c>
@@ -1783,10 +2159,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>32</v>
       </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>79</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>29</v>
+      </c>
       <c r="F34">
         <v>-1</v>
       </c>
@@ -1824,10 +2212,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
+      </c>
       <c r="F35">
         <v>5</v>
       </c>
@@ -1865,10 +2262,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>89</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
       <c r="F36">
         <v>23</v>
       </c>
@@ -1906,10 +2315,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>35</v>
       </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
       <c r="F37">
         <v>29</v>
       </c>
@@ -1947,7 +2368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2000,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2055,6 +2476,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CBS/Data.xlsx
+++ b/CBS/Data.xlsx
@@ -1,28 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\CBS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="1200" windowWidth="23220" windowHeight="16320"/>
+    <workbookView xWindow="13665" yWindow="1200" windowWidth="23220" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MoCA" sheetId="2" r:id="rId2"/>
+    <sheet name="MMSE - Severity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$40</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="55">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -86,6 +96,108 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <t>Unimpaired</t>
+  </si>
+  <si>
+    <t>Impaired</t>
+  </si>
+  <si>
+    <t>Borderline</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>Feature Match and Paired associates - highest % of scores in middle - like Brenkel 2017</t>
+  </si>
+  <si>
+    <t>Least amount in the middle</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>OOO</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>replicates Brenkel 2017</t>
+  </si>
+  <si>
+    <t>No CI</t>
+  </si>
+  <si>
+    <t>MCI</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>Pop.STD.M</t>
+  </si>
+  <si>
+    <t>Pop.Mean.M (254)</t>
+  </si>
+  <si>
+    <t>Pop.Mean.F (88)</t>
+  </si>
+  <si>
+    <t>Pop.STD.F</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>1v3</t>
+  </si>
+  <si>
+    <t>1v2</t>
+  </si>
+  <si>
+    <t>2v3</t>
+  </si>
+  <si>
+    <t>t.test.p</t>
+  </si>
 </sst>
 </file>
 
@@ -108,15 +220,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,22 +254,214 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -406,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,33 +736,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" customWidth="1"/>
-    <col min="17" max="17" width="5.5" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
@@ -478,7 +800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -584,7 +906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -637,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -690,7 +1012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -743,7 +1065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -796,7 +1118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -849,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -902,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -955,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1008,7 +1330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1061,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1114,7 +1436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1167,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1220,7 +1542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1273,7 +1595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1326,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1379,7 +1701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1432,7 +1754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1485,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1538,7 +1860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1576,7 +1898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1629,7 +1951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1682,7 +2004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1735,7 +2057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1788,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1841,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1894,7 +2216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1947,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2000,7 +2322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2053,7 +2375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2106,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2159,7 +2481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2212,7 +2534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2262,7 +2584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2315,7 +2637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2368,9 +2690,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
+      </c>
+      <c r="C39">
+        <f>MIN(C3:C37)</f>
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <f>MIN(D3:D37)</f>
+        <v>12</v>
       </c>
       <c r="F39">
         <f>MIN(F3:F37)</f>
@@ -2421,9 +2751,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
+      </c>
+      <c r="C40">
+        <f>MAX(C3:C37)</f>
+        <v>92</v>
+      </c>
+      <c r="D40">
+        <f>MAX(D3:D37)</f>
+        <v>29</v>
       </c>
       <c r="F40">
         <f>MAX(F3:F37)</f>
@@ -2475,6 +2813,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -2483,4 +2822,7048 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>80</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>19</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <f>STANDARDIZE(F2,$F$15,$F$16)</f>
+        <v>0.63988464720243976</v>
+      </c>
+      <c r="U2">
+        <f>STANDARDIZE(G2,$G$15,$G$16)</f>
+        <v>-1.0530932371675488</v>
+      </c>
+      <c r="V2">
+        <f>STANDARDIZE(H2,$H$15,$H$16)</f>
+        <v>-5.768210027602174E-2</v>
+      </c>
+      <c r="W2">
+        <f>STANDARDIZE(I2,$I$15,$I$16)</f>
+        <v>0.41691947700753929</v>
+      </c>
+      <c r="X2">
+        <f>STANDARDIZE(J2,$J$15,$J$16)</f>
+        <v>-0.44199466222696143</v>
+      </c>
+      <c r="Y2">
+        <f>STANDARDIZE(K2,$K$15,$K$16)</f>
+        <v>-0.72493600563844784</v>
+      </c>
+      <c r="Z2">
+        <f>STANDARDIZE(L2,$L$15,$L$16)</f>
+        <v>0.65396318635969874</v>
+      </c>
+      <c r="AA2">
+        <f>STANDARDIZE(M2,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB2">
+        <f>STANDARDIZE(N2,$N$15,$N$16)</f>
+        <v>-0.8144040251567165</v>
+      </c>
+      <c r="AC2">
+        <f>STANDARDIZE(O2,$O$15,$O$16)</f>
+        <v>-1.5859681552080627</v>
+      </c>
+      <c r="AD2">
+        <f>STANDARDIZE(P2,$P$15,$P$16)</f>
+        <v>-0.73907256138610611</v>
+      </c>
+      <c r="AE2">
+        <f>STANDARDIZE(Q2,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>69</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="0">STANDARDIZE(F3,$F$15,$F$16)</f>
+        <v>-0.53673906228025547</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U6" si="1">STANDARDIZE(G3,$G$15,$G$16)</f>
+        <v>-2.2361426610493909</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V6" si="2">STANDARDIZE(H3,$H$15,$H$16)</f>
+        <v>-0.18783658295012204</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W6" si="3">STANDARDIZE(I3,$I$15,$I$16)</f>
+        <v>-0.75400330948171979</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X6" si="4">STANDARDIZE(J3,$J$15,$J$16)</f>
+        <v>0.14733155407565382</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y6" si="5">STANDARDIZE(K3,$K$15,$K$16)</f>
+        <v>0.38453127255604641</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z6" si="6">STANDARDIZE(L3,$L$15,$L$16)</f>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA6" si="7">STANDARDIZE(M3,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB6" si="8">STANDARDIZE(N3,$N$15,$N$16)</f>
+        <v>-1.2751539353564254</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC6" si="9">STANDARDIZE(O3,$O$15,$O$16)</f>
+        <v>-1.4148065196202413</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD6" si="10">STANDARDIZE(P3,$P$15,$P$16)</f>
+        <v>-0.69075280997304722</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE6" si="11">STANDARDIZE(Q3,$Q$15,$Q$16)</f>
+        <v>0.33964707532997496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>110</v>
+      </c>
+      <c r="O4">
+        <v>37</v>
+      </c>
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>1.3122410526211228</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>0.9186558026355216</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>1.113708243790881</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>1.5878422634967984</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="4"/>
+        <v>-0.44199466222696143</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="5"/>
+        <v>0.38453127255604641</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="6"/>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="7"/>
+        <v>1.1787310771635018</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="8"/>
+        <v>0.44218663902430755</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="9"/>
+        <v>-0.83285695862164877</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="10"/>
+        <v>-0.44915405290775245</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="11"/>
+        <v>1.0868706410559206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>101</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>-1.9654964237949568</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>-1.0530932371675488</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>-0.44814554829832259</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>0.80722707250395898</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>-0.44199466222696143</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="5"/>
+        <v>0.38453127255604641</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="6"/>
+        <v>0.65396318635969874</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="7"/>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>6.5209439770000335E-2</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="9"/>
+        <v>-1.2436448840324201</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="10"/>
+        <v>-0.44915405290775245</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="11"/>
+        <v>-1.1548000561219161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>90</v>
+      </c>
+      <c r="O6">
+        <v>44</v>
+      </c>
+      <c r="P6">
+        <v>13</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>-1.4612291197309446</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>-1.4474430451281628</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>-1.0989179616688241</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>0.61207327475574913</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>0.14733155407565382</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="6"/>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="7"/>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="8"/>
+        <v>-0.39554047042970852</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="9"/>
+        <v>-0.5932306687986989</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="10"/>
+        <v>-1.0289910698644598</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="11"/>
+        <v>0.33964707532997496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>110</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <f>STANDARDIZE(F7,F13,F14)</f>
+        <v>7.2913433679053091E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:AE7" si="12">STANDARDIZE(G7,G13,G14)</f>
+        <v>0.38005031547776363</v>
+      </c>
+      <c r="V7">
+        <f>STANDARDIZE(H7,H13,H14)</f>
+        <v>1.8413205414342921</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="12"/>
+        <v>0.78161496292172838</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="12"/>
+        <v>-1.9002027646366408</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="12"/>
+        <v>0.33659898659798726</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="12"/>
+        <v>-0.19194951677020239</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="12"/>
+        <v>-0.97928690127369844</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="12"/>
+        <v>0.69851253884046016</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="12"/>
+        <v>-1.4497732692132557</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="12"/>
+        <v>-0.55618787296668226</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="12"/>
+        <v>1.1932716806534354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>90</v>
+      </c>
+      <c r="O8">
+        <v>45</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <f>STANDARDIZE(F8,$F$15,$F$16)</f>
+        <v>-1.5452736704082799</v>
+      </c>
+      <c r="U8">
+        <f>STANDARDIZE(G8,$G$15,$G$16)</f>
+        <v>-0.65874342920693474</v>
+      </c>
+      <c r="V8">
+        <f>STANDARDIZE(H8,$H$15,$H$16)</f>
+        <v>-0.3179910656242223</v>
+      </c>
+      <c r="W8">
+        <f>STANDARDIZE(I8,$I$15,$I$16)</f>
+        <v>-0.75400330948171979</v>
+      </c>
+      <c r="X8">
+        <f>STANDARDIZE(J8,$J$15,$J$16)</f>
+        <v>0.14733155407565382</v>
+      </c>
+      <c r="Y8">
+        <f>STANDARDIZE(K8,$K$15,$K$16)</f>
+        <v>0.38453127255604641</v>
+      </c>
+      <c r="Z8">
+        <f>STANDARDIZE(L8,$L$15,$L$16)</f>
+        <v>0.65396318635969874</v>
+      </c>
+      <c r="AA8">
+        <f>STANDARDIZE(M8,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB8">
+        <f>STANDARDIZE(N8,$N$15,$N$16)</f>
+        <v>-0.39554047042970852</v>
+      </c>
+      <c r="AC8">
+        <f>STANDARDIZE(O8,$O$15,$O$16)</f>
+        <v>-0.5589983416811346</v>
+      </c>
+      <c r="AD8">
+        <f>STANDARDIZE(P8,$P$15,$P$16)</f>
+        <v>-1.7054675896472848</v>
+      </c>
+      <c r="AE8">
+        <f>STANDARDIZE(Q8,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>88</v>
+      </c>
+      <c r="P9">
+        <v>24</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T10" si="13">STANDARDIZE(F9,$F$15,$F$16)</f>
+        <v>0.471795545847769</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:U10" si="14">STANDARDIZE(G9,$G$15,$G$16)</f>
+        <v>-1.841792853088777</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9:V10" si="15">STANDARDIZE(H9,$H$15,$H$16)</f>
+        <v>0.59309031309447968</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9:W10" si="16">STANDARDIZE(I9,$I$15,$I$16)</f>
+        <v>0.80722707250395898</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ref="X9:X10" si="17">STANDARDIZE(J9,$J$15,$J$16)</f>
+        <v>0.14733155407565382</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ref="Y9:Y10" si="18">STANDARDIZE(K9,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" ref="Z9:Z10" si="19">STANDARDIZE(L9,$L$15,$L$16)</f>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" ref="AA9:AA10" si="20">STANDARDIZE(M9,$M$15,$M$16)</f>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" ref="AB9:AB10" si="21">STANDARDIZE(N9,$N$15,$N$16)</f>
+        <v>2.3323084297299526E-2</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9:AC10" si="22">STANDARDIZE(O9,$O$15,$O$16)</f>
+        <v>0.9129917243741289</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" ref="AD9:AD10" si="23">STANDARDIZE(P9,$P$15,$P$16)</f>
+        <v>-0.4974738043208114</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" ref="AE9:AE10" si="24">STANDARDIZE(Q9,$Q$15,$Q$16)</f>
+        <v>0.33964707532997496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>64</v>
+      </c>
+      <c r="O10">
+        <v>69</v>
+      </c>
+      <c r="P10">
+        <v>16</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="13"/>
+        <v>0.97606284991178127</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="14"/>
+        <v>-2.2361426610493909</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="15"/>
+        <v>0.72324479576858003</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="16"/>
+        <v>-0.94915710722992963</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="17"/>
+        <v>0.14733155407565382</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="18"/>
+        <v>2.0487321898477879</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="19"/>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="20"/>
+        <v>1.1787310771635018</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="21"/>
+        <v>-1.4845857127199293</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="22"/>
+        <v>0.26257750914040778</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="23"/>
+        <v>-0.88403181562528288</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="24"/>
+        <v>1.0868706410559206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4">
+        <f>AVERAGE(F2:F10)</f>
+        <v>14.777777777777779</v>
+      </c>
+      <c r="G11" s="4">
+        <f>AVERAGE(G2:G10)</f>
+        <v>11</v>
+      </c>
+      <c r="H11" s="4">
+        <f>AVERAGE(H2:H10)</f>
+        <v>16.222222222222221</v>
+      </c>
+      <c r="I11" s="4">
+        <f>AVERAGE(I2:I10)</f>
+        <v>15.222222222222221</v>
+      </c>
+      <c r="J11" s="4">
+        <f>AVERAGE(J2:J10)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="K11" s="4">
+        <f>AVERAGE(K2:K10)</f>
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="L11" s="4">
+        <f>AVERAGE(L2:L10)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="M11" s="4">
+        <f>AVERAGE(M2:M10)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="N11" s="4">
+        <f>AVERAGE(N2:N10)</f>
+        <v>90.444444444444443</v>
+      </c>
+      <c r="O11" s="4">
+        <f>AVERAGE(O2:O10)</f>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="P11" s="4">
+        <f>AVERAGE(P2:P10)</f>
+        <v>17.888888888888889</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>AVERAGE(Q2:Q10)</f>
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8">
+        <f>STDEV(F2:F10)</f>
+        <v>14.30714662133734</v>
+      </c>
+      <c r="G12" s="8">
+        <f>STDEV(G2:G10)</f>
+        <v>2.6925824035672519</v>
+      </c>
+      <c r="H12" s="8">
+        <f>STDEV(H2:H10)</f>
+        <v>6.8150161000869582</v>
+      </c>
+      <c r="I12" s="8">
+        <f>STDEV(I2:I10)</f>
+        <v>4.4938229209042557</v>
+      </c>
+      <c r="J12" s="8">
+        <f>STDEV(J2:J10)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <f>STDEV(K2:K10)</f>
+        <v>1.3642254619787428</v>
+      </c>
+      <c r="L12" s="8">
+        <f>STDEV(L2:L10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="8">
+        <f>STDEV(M2:M10)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="N12" s="8">
+        <f>STDEV(N2:N10)</f>
+        <v>16.719084238611199</v>
+      </c>
+      <c r="O12" s="8">
+        <f>STDEV(O2:O10)</f>
+        <v>24.315632831575655</v>
+      </c>
+      <c r="P12" s="8">
+        <f>STDEV(P2:P10)</f>
+        <v>8.1615630311301945</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>STDEV(Q2:Q10)</f>
+        <v>1.0540925533894612</v>
+      </c>
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13">
+        <v>18.228346456692915</v>
+      </c>
+      <c r="G13">
+        <v>13.153543307086615</v>
+      </c>
+      <c r="H13">
+        <v>14.464566929133857</v>
+      </c>
+      <c r="I13">
+        <v>13.799212598425196</v>
+      </c>
+      <c r="J13">
+        <v>6.7913385826771657</v>
+      </c>
+      <c r="K13">
+        <v>6.3346456692913389</v>
+      </c>
+      <c r="L13">
+        <v>4.1929133858267713</v>
+      </c>
+      <c r="M13">
+        <v>4.9133858267716537</v>
+      </c>
+      <c r="N13">
+        <v>92.086614173228341</v>
+      </c>
+      <c r="O13">
+        <v>63.562992125984252</v>
+      </c>
+      <c r="P13">
+        <v>30.5748031496063</v>
+      </c>
+      <c r="Q13">
+        <v>6.5984251968503935</v>
+      </c>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="8">
+        <f>AVERAGE(T2:T10)</f>
+        <v>-0.22620452743914118</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" ref="U13:AE13" si="25">AVERAGE(U2:U10)</f>
+        <v>-1.0253050006382742</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="25"/>
+        <v>0.24008784836341335</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" si="25"/>
+        <v>0.28397115522181821</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="25"/>
+        <v>-0.27661433121547296</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="25"/>
+        <v>0.31756839199434572</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="25"/>
+        <v>1.8082486768490755E-2</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="25"/>
+        <v>-0.24923122731792979</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="25"/>
+        <v>-0.34844365690671342</v>
+      </c>
+      <c r="AC13" s="8">
+        <f t="shared" si="25"/>
+        <v>-0.72263439596232515</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="25"/>
+        <v>-0.77780951439990875</v>
+      </c>
+      <c r="AE13" s="8">
+        <f t="shared" si="25"/>
+        <v>0.26844457242681602</v>
+      </c>
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>10.583146402125475</v>
+      </c>
+      <c r="G14">
+        <v>2.2272227082598239</v>
+      </c>
+      <c r="H14">
+        <v>7.3509379634263734</v>
+      </c>
+      <c r="I14">
+        <v>4.0950948400604421</v>
+      </c>
+      <c r="J14">
+        <v>1.4689688040796682</v>
+      </c>
+      <c r="K14">
+        <v>1.9766973674918358</v>
+      </c>
+      <c r="L14">
+        <v>1.0050214716493548</v>
+      </c>
+      <c r="M14">
+        <v>0.93270503831274443</v>
+      </c>
+      <c r="N14">
+        <v>25.645045479796412</v>
+      </c>
+      <c r="O14">
+        <v>27.978852271153031</v>
+      </c>
+      <c r="P14">
+        <v>19.013005611216862</v>
+      </c>
+      <c r="Q14">
+        <v>1.1745647079985209</v>
+      </c>
+      <c r="S14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="8">
+        <f>STDEV(T2:T10)</f>
+        <v>1.2003043838131993</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" ref="U14:AE14" si="26">STDEV(U2:U10)</f>
+        <v>1.0992626817880162</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.90381484633496367</v>
+      </c>
+      <c r="W14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.88713276090705528</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.67237842126586322</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.75646235967744979</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.47873821681804868</v>
+      </c>
+      <c r="AA14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.92797317455212613</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.74176301223441599</v>
+      </c>
+      <c r="AC14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.84603610280242603</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.40120714163691129</v>
+      </c>
+      <c r="AE14" s="8">
+        <f t="shared" si="26"/>
+        <v>0.80232406610780849</v>
+      </c>
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>17.386363636363637</v>
+      </c>
+      <c r="G15">
+        <v>13.670454545454545</v>
+      </c>
+      <c r="H15">
+        <v>14.443181818181818</v>
+      </c>
+      <c r="I15">
+        <v>13.863636363636363</v>
+      </c>
+      <c r="J15">
+        <v>6.75</v>
+      </c>
+      <c r="K15">
+        <v>6.3068181818181817</v>
+      </c>
+      <c r="L15">
+        <v>4.3295454545454541</v>
+      </c>
+      <c r="M15">
+        <v>4.8977272727272725</v>
+      </c>
+      <c r="N15">
+        <v>99.443181818181813</v>
+      </c>
+      <c r="O15">
+        <v>61.329545454545453</v>
+      </c>
+      <c r="P15">
+        <v>34.295454545454547</v>
+      </c>
+      <c r="Q15">
+        <v>6.5454545454545459</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16">
+        <v>11.898451380140152</v>
+      </c>
+      <c r="G16">
+        <v>2.5358196702859193</v>
+      </c>
+      <c r="H16">
+        <v>7.6831775552744146</v>
+      </c>
+      <c r="I16">
+        <v>5.124163667520393</v>
+      </c>
+      <c r="J16">
+        <v>1.6968530710782199</v>
+      </c>
+      <c r="K16">
+        <v>1.8026669549504204</v>
+      </c>
+      <c r="L16">
+        <v>1.0252175649009336</v>
+      </c>
+      <c r="M16">
+        <v>0.93513503514748786</v>
+      </c>
+      <c r="N16">
+        <v>23.874122938476813</v>
+      </c>
+      <c r="O16">
+        <v>29.212153662989213</v>
+      </c>
+      <c r="P16">
+        <v>20.69547070827312</v>
+      </c>
+      <c r="Q16">
+        <v>1.3382875565875336</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:31" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>64</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+      <c r="P18">
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <f>STANDARDIZE(F18,$F$15,$F$16)</f>
+        <v>-0.95696181566693228</v>
+      </c>
+      <c r="U18">
+        <f>STANDARDIZE(G18,$G$15,$G$16)</f>
+        <v>-1.0530932371675488</v>
+      </c>
+      <c r="V18">
+        <f>STANDARDIZE(H18,$H$15,$H$16)</f>
+        <v>-1.2290724443429244</v>
+      </c>
+      <c r="W18">
+        <f>STANDARDIZE(I18,$I$15,$I$16)</f>
+        <v>2.6611881511119588E-2</v>
+      </c>
+      <c r="X18">
+        <f>STANDARDIZE(J18,$J$15,$J$16)</f>
+        <v>0.14733155407565382</v>
+      </c>
+      <c r="Y18">
+        <f>STANDARDIZE(K18,$K$15,$K$16)</f>
+        <v>-0.72493600563844784</v>
+      </c>
+      <c r="Z18">
+        <f>STANDARDIZE(L18,$L$15,$L$16)</f>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA18">
+        <f>STANDARDIZE(M18,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB18">
+        <f>STANDARDIZE(N18,$N$15,$N$16)</f>
+        <v>-1.4845857127199293</v>
+      </c>
+      <c r="AC18">
+        <f>STANDARDIZE(O18,$O$15,$O$16)</f>
+        <v>-1.8255944450310126</v>
+      </c>
+      <c r="AD18">
+        <f>STANDARDIZE(P18,$P$15,$P$16)</f>
+        <v>-0.83571206421222399</v>
+      </c>
+      <c r="AE18">
+        <f>STANDARDIZE(Q18,$Q$15,$Q$16)</f>
+        <v>-1.1548000561219161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>64</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>16</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <f>STANDARDIZE(F19,$F$15,$F$16)</f>
+        <v>-1.3771845690536091</v>
+      </c>
+      <c r="U19">
+        <f>STANDARDIZE(G19,$G$15,$G$16)</f>
+        <v>0.9186558026355216</v>
+      </c>
+      <c r="V19">
+        <f>STANDARDIZE(H19,$H$15,$H$16)</f>
+        <v>0.59309031309447968</v>
+      </c>
+      <c r="W19">
+        <f>STANDARDIZE(I19,$I$15,$I$16)</f>
+        <v>0.22176567925932944</v>
+      </c>
+      <c r="X19">
+        <f>STANDARDIZE(J19,$J$15,$J$16)</f>
+        <v>-2.209973311134807</v>
+      </c>
+      <c r="Y19">
+        <f>STANDARDIZE(K19,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z19">
+        <f>STANDARDIZE(L19,$L$15,$L$16)</f>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA19">
+        <f>STANDARDIZE(M19,$M$15,$M$16)</f>
+        <v>-2.0293617514052036</v>
+      </c>
+      <c r="AB19">
+        <f>STANDARDIZE(N19,$N$15,$N$16)</f>
+        <v>-1.4845857127199293</v>
+      </c>
+      <c r="AC19">
+        <f>STANDARDIZE(O19,$O$15,$O$16)</f>
+        <v>-1.5517358280904985</v>
+      </c>
+      <c r="AD19">
+        <f>STANDARDIZE(P19,$P$15,$P$16)</f>
+        <v>-0.88403181562528288</v>
+      </c>
+      <c r="AE19">
+        <f>STANDARDIZE(Q19,$Q$15,$Q$16)</f>
+        <v>0.33964707532997496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>52</v>
+      </c>
+      <c r="N20">
+        <v>81</v>
+      </c>
+      <c r="O20">
+        <v>52</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <f>STANDARDIZE(F20,F13,F14)</f>
+        <v>-1.7223938670102881</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20:AE20" si="27">STANDARDIZE(G20,G13,G14)</f>
+        <v>-3.6608567597881354</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="27"/>
+        <v>-1.0154577505990161</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="27"/>
+        <v>-1.9045255123590941</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="27"/>
+        <v>-1.2194531141180136</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="27"/>
+        <v>-0.67518968317584471</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="27"/>
+        <v>-2.1819567518572018</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="27"/>
+        <v>50.483928186351001</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="27"/>
+        <v>-0.432310177884557</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="27"/>
+        <v>-0.41327614206341179</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="27"/>
+        <v>-1.6080994123079873</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="27"/>
+        <v>0.34189244782766975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>72</v>
+      </c>
+      <c r="O21">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <f>STANDARDIZE(F21,$F$15,$F$16)</f>
+        <v>-1.5452736704082799</v>
+      </c>
+      <c r="U21">
+        <f>STANDARDIZE(G21,$G$15,$G$16)</f>
+        <v>-1.4474430451281628</v>
+      </c>
+      <c r="V21">
+        <f>STANDARDIZE(H21,$H$15,$H$16)</f>
+        <v>-1.4893814096911249</v>
+      </c>
+      <c r="W21">
+        <f>STANDARDIZE(I21,$I$15,$I$16)</f>
+        <v>-2.1200798937191889</v>
+      </c>
+      <c r="X21">
+        <f>STANDARDIZE(J21,$J$15,$J$16)</f>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="Y21">
+        <f>STANDARDIZE(K21,$K$15,$K$16)</f>
+        <v>-2.3891369229301893</v>
+      </c>
+      <c r="Z21">
+        <f>STANDARDIZE(L21,$L$15,$L$16)</f>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AA21">
+        <f>STANDARDIZE(M21,$M$15,$M$16)</f>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="AB21">
+        <f>STANDARDIZE(N21,$N$15,$N$16)</f>
+        <v>-1.1494948689383229</v>
+      </c>
+      <c r="AC21">
+        <f>STANDARDIZE(O21,$O$15,$O$16)</f>
+        <v>-1.2094125569148557</v>
+      </c>
+      <c r="AD21">
+        <f>STANDARDIZE(P21,$P$15,$P$16)</f>
+        <v>-1.2222700755166955</v>
+      </c>
+      <c r="AE21">
+        <f>STANDARDIZE(Q21,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>90</v>
+      </c>
+      <c r="O22">
+        <v>36</v>
+      </c>
+      <c r="P22">
+        <v>16</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <f>STANDARDIZE(F22,$F$15,$F$16)</f>
+        <v>-1.125050917021603</v>
+      </c>
+      <c r="U22">
+        <f>STANDARDIZE(G22,$G$15,$G$16)</f>
+        <v>0.12995618671429346</v>
+      </c>
+      <c r="V22">
+        <f>STANDARDIZE(H22,$H$15,$H$16)</f>
+        <v>0.59309031309447968</v>
+      </c>
+      <c r="W22">
+        <f>STANDARDIZE(I22,$I$15,$I$16)</f>
+        <v>-0.55884951173350994</v>
+      </c>
+      <c r="X22">
+        <f>STANDARDIZE(J22,$J$15,$J$16)</f>
+        <v>-1.0313208785295767</v>
+      </c>
+      <c r="Y22">
+        <f>STANDARDIZE(K22,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z22">
+        <f>STANDARDIZE(L22,$L$15,$L$16)</f>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA22">
+        <f>STANDARDIZE(M22,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB22">
+        <f>STANDARDIZE(N22,$N$15,$N$16)</f>
+        <v>-0.39554047042970852</v>
+      </c>
+      <c r="AC22">
+        <f>STANDARDIZE(O22,$O$15,$O$16)</f>
+        <v>-0.86708928573921307</v>
+      </c>
+      <c r="AD22">
+        <f>STANDARDIZE(P22,$P$15,$P$16)</f>
+        <v>-0.88403181562528288</v>
+      </c>
+      <c r="AE22">
+        <f>STANDARDIZE(Q22,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>-6</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>33</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>-2</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>STANDARDIZE(F23,$F$15,$F$16)</f>
+        <v>-1.9654964237949568</v>
+      </c>
+      <c r="U23">
+        <f>STANDARDIZE(G23,$G$15,$G$16)</f>
+        <v>-3.8135418928918474</v>
+      </c>
+      <c r="V23">
+        <f>STANDARDIZE(H23,$H$15,$H$16)</f>
+        <v>-0.83860899632062347</v>
+      </c>
+      <c r="W23">
+        <f>STANDARDIZE(I23,$I$15,$I$16)</f>
+        <v>-2.3152336914673985</v>
+      </c>
+      <c r="X23">
+        <f>STANDARDIZE(J23,$J$15,$J$16)</f>
+        <v>-1.0313208785295767</v>
+      </c>
+      <c r="Y23">
+        <f>STANDARDIZE(K23,$K$15,$K$16)</f>
+        <v>-0.72493600563844784</v>
+      </c>
+      <c r="Z23">
+        <f>STANDARDIZE(L23,$L$15,$L$16)</f>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AA23">
+        <f>STANDARDIZE(M23,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB23">
+        <f>STANDARDIZE(N23,$N$15,$N$16)</f>
+        <v>-2.7830627323736543</v>
+      </c>
+      <c r="AC23">
+        <f>STANDARDIZE(O23,$O$15,$O$16)</f>
+        <v>-1.9625237535012696</v>
+      </c>
+      <c r="AD23">
+        <f>STANDARDIZE(P23,$P$15,$P$16)</f>
+        <v>-1.753787341060344</v>
+      </c>
+      <c r="AE23">
+        <f>STANDARDIZE(Q23,$Q$15,$Q$16)</f>
+        <v>-4.8909178847516435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>-2</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>72</v>
+      </c>
+      <c r="O24">
+        <v>37</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <f>STANDARDIZE(F24,$F$15,$F$16)</f>
+        <v>-1.6293182210856154</v>
+      </c>
+      <c r="U24">
+        <f>STANDARDIZE(G24,$G$15,$G$16)</f>
+        <v>-1.0530932371675488</v>
+      </c>
+      <c r="V24">
+        <f>STANDARDIZE(H24,$H$15,$H$16)</f>
+        <v>0.59309031309447968</v>
+      </c>
+      <c r="W24">
+        <f>STANDARDIZE(I24,$I$15,$I$16)</f>
+        <v>-0.75400330948171979</v>
+      </c>
+      <c r="X24">
+        <f>STANDARDIZE(J24,$J$15,$J$16)</f>
+        <v>-1.0313208785295767</v>
+      </c>
+      <c r="Y24">
+        <f>STANDARDIZE(K24,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z24">
+        <f>STANDARDIZE(L24,$L$15,$L$16)</f>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA24">
+        <f>STANDARDIZE(M24,$M$15,$M$16)</f>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="AB24">
+        <f>STANDARDIZE(N24,$N$15,$N$16)</f>
+        <v>-1.1494948689383229</v>
+      </c>
+      <c r="AC24">
+        <f>STANDARDIZE(O24,$O$15,$O$16)</f>
+        <v>-0.83285695862164877</v>
+      </c>
+      <c r="AD24">
+        <f>STANDARDIZE(P24,$P$15,$P$16)</f>
+        <v>-1.5605083354081082</v>
+      </c>
+      <c r="AE24">
+        <f>STANDARDIZE(Q24,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>72</v>
+      </c>
+      <c r="O25">
+        <v>24</v>
+      </c>
+      <c r="P25">
+        <v>12</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <f>STANDARDIZE(F25,$F$15,$F$16)</f>
+        <v>-1.3771845690536091</v>
+      </c>
+      <c r="U25">
+        <f>STANDARDIZE(G25,$G$15,$G$16)</f>
+        <v>-0.65874342920693474</v>
+      </c>
+      <c r="V25">
+        <f>STANDARDIZE(H25,$H$15,$H$16)</f>
+        <v>-5.768210027602174E-2</v>
+      </c>
+      <c r="W25">
+        <f>STANDARDIZE(I25,$I$15,$I$16)</f>
+        <v>2.6611881511119588E-2</v>
+      </c>
+      <c r="X25">
+        <f>STANDARDIZE(J25,$J$15,$J$16)</f>
+        <v>0.14733155407565382</v>
+      </c>
+      <c r="Y25">
+        <f>STANDARDIZE(K25,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z25">
+        <f>STANDARDIZE(L25,$L$15,$L$16)</f>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AA25">
+        <f>STANDARDIZE(M25,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB25">
+        <f>STANDARDIZE(N25,$N$15,$N$16)</f>
+        <v>-1.1494948689383229</v>
+      </c>
+      <c r="AC25">
+        <f>STANDARDIZE(O25,$O$15,$O$16)</f>
+        <v>-1.2778772111499843</v>
+      </c>
+      <c r="AD25">
+        <f>STANDARDIZE(P25,$P$15,$P$16)</f>
+        <v>-1.0773108212775186</v>
+      </c>
+      <c r="AE25">
+        <f>STANDARDIZE(Q25,$Q$15,$Q$16)</f>
+        <v>-1.1548000561219161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>91</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>42</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <v>11</v>
+      </c>
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <f>STANDARDIZE(F26,$F$15,$F$16)</f>
+        <v>-1.0410063663442677</v>
+      </c>
+      <c r="U26">
+        <f>STANDARDIZE(G26,$G$15,$G$16)</f>
+        <v>-1.841792853088777</v>
+      </c>
+      <c r="V26">
+        <f>STANDARDIZE(H26,$H$15,$H$16)</f>
+        <v>-1.2290724443429244</v>
+      </c>
+      <c r="W26">
+        <f>STANDARDIZE(I26,$I$15,$I$16)</f>
+        <v>-0.94915710722992963</v>
+      </c>
+      <c r="X26">
+        <f>STANDARDIZE(J26,$J$15,$J$16)</f>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="Y26">
+        <f>STANDARDIZE(K26,$K$15,$K$16)</f>
+        <v>-1.279669644735695</v>
+      </c>
+      <c r="Z26">
+        <f>STANDARDIZE(L26,$L$15,$L$16)</f>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AA26">
+        <f>STANDARDIZE(M26,$M$15,$M$16)</f>
+        <v>-2.0293617514052036</v>
+      </c>
+      <c r="AB26">
+        <f>STANDARDIZE(N26,$N$15,$N$16)</f>
+        <v>-2.4060855331193469</v>
+      </c>
+      <c r="AC26">
+        <f>STANDARDIZE(O26,$O$15,$O$16)</f>
+        <v>-1.8255944450310126</v>
+      </c>
+      <c r="AD26">
+        <f>STANDARDIZE(P26,$P$15,$P$16)</f>
+        <v>-1.1256305726905775</v>
+      </c>
+      <c r="AE26">
+        <f>STANDARDIZE(Q26,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>77</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>90</v>
+      </c>
+      <c r="O27">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>19</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <f>STANDARDIZE(F27,$F$15,$F$16)</f>
+        <v>0.63988464720243976</v>
+      </c>
+      <c r="U27">
+        <f>STANDARDIZE(G27,$G$15,$G$16)</f>
+        <v>-1.841792853088777</v>
+      </c>
+      <c r="V27">
+        <f>STANDARDIZE(H27,$H$15,$H$16)</f>
+        <v>-0.57830003097242288</v>
+      </c>
+      <c r="W27">
+        <f>STANDARDIZE(I27,$I$15,$I$16)</f>
+        <v>-1.1443109049781395</v>
+      </c>
+      <c r="X27">
+        <f>STANDARDIZE(J27,$J$15,$J$16)</f>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="Y27">
+        <f>STANDARDIZE(K27,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z27">
+        <f>STANDARDIZE(L27,$L$15,$L$16)</f>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA27">
+        <f>STANDARDIZE(M27,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB27">
+        <f>STANDARDIZE(N27,$N$15,$N$16)</f>
+        <v>-0.39554047042970852</v>
+      </c>
+      <c r="AC27">
+        <f>STANDARDIZE(O27,$O$15,$O$16)</f>
+        <v>-1.5517358280904985</v>
+      </c>
+      <c r="AD27">
+        <f>STANDARDIZE(P27,$P$15,$P$16)</f>
+        <v>-0.73907256138610611</v>
+      </c>
+      <c r="AE27">
+        <f>STANDARDIZE(Q27,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>83</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>6</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>64</v>
+      </c>
+      <c r="O28">
+        <v>78</v>
+      </c>
+      <c r="P28">
+        <v>31</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <f>STANDARDIZE(F28,$F$15,$F$16)</f>
+        <v>5.1572792461092136E-2</v>
+      </c>
+      <c r="U28">
+        <f>STANDARDIZE(G28,$G$15,$G$16)</f>
+        <v>-2.2361426610493909</v>
+      </c>
+      <c r="V28">
+        <f>STANDARDIZE(H28,$H$15,$H$16)</f>
+        <v>-0.57830003097242288</v>
+      </c>
+      <c r="W28">
+        <f>STANDARDIZE(I28,$I$15,$I$16)</f>
+        <v>-0.16854191623709025</v>
+      </c>
+      <c r="X28">
+        <f>STANDARDIZE(J28,$J$15,$J$16)</f>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="Y28">
+        <f>STANDARDIZE(K28,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z28">
+        <f>STANDARDIZE(L28,$L$15,$L$16)</f>
+        <v>-2.2722449695548841</v>
+      </c>
+      <c r="AA28">
+        <f>STANDARDIZE(M28,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB28">
+        <f>STANDARDIZE(N28,$N$15,$N$16)</f>
+        <v>-1.4845857127199293</v>
+      </c>
+      <c r="AC28">
+        <f>STANDARDIZE(O28,$O$15,$O$16)</f>
+        <v>0.57066845319848625</v>
+      </c>
+      <c r="AD28">
+        <f>STANDARDIZE(P28,$P$15,$P$16)</f>
+        <v>-0.15923554442939883</v>
+      </c>
+      <c r="AE28">
+        <f>STANDARDIZE(Q28,$Q$15,$Q$16)</f>
+        <v>-3.3964707532997527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>86</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>72</v>
+      </c>
+      <c r="O29">
+        <v>98</v>
+      </c>
+      <c r="P29">
+        <v>25</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <f>STANDARDIZE(F29,$F$15,$F$16)</f>
+        <v>0.63988464720243976</v>
+      </c>
+      <c r="U29">
+        <f>STANDARDIZE(G29,$G$15,$G$16)</f>
+        <v>-1.0530932371675488</v>
+      </c>
+      <c r="V29">
+        <f>STANDARDIZE(H29,$H$15,$H$16)</f>
+        <v>-0.3179910656242223</v>
+      </c>
+      <c r="W29">
+        <f>STANDARDIZE(I29,$I$15,$I$16)</f>
+        <v>0.61207327475574913</v>
+      </c>
+      <c r="X29">
+        <f>STANDARDIZE(J29,$J$15,$J$16)</f>
+        <v>-1.0313208785295767</v>
+      </c>
+      <c r="Y29">
+        <f>STANDARDIZE(K29,$K$15,$K$16)</f>
+        <v>-1.279669644735695</v>
+      </c>
+      <c r="Z29">
+        <f>STANDARDIZE(L29,$L$15,$L$16)</f>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AA29">
+        <f>STANDARDIZE(M29,$M$15,$M$16)</f>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="AB29">
+        <f>STANDARDIZE(N29,$N$15,$N$16)</f>
+        <v>-1.1494948689383229</v>
+      </c>
+      <c r="AC29">
+        <f>STANDARDIZE(O29,$O$15,$O$16)</f>
+        <v>1.2553149955497716</v>
+      </c>
+      <c r="AD29">
+        <f>STANDARDIZE(P29,$P$15,$P$16)</f>
+        <v>-0.44915405290775245</v>
+      </c>
+      <c r="AE29">
+        <f>STANDARDIZE(Q29,$Q$15,$Q$16)</f>
+        <v>1.0868706410559206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>32</v>
+      </c>
+      <c r="O30">
+        <v>-6</v>
+      </c>
+      <c r="P30">
+        <v>-5</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <f>STANDARDIZE(F30,F13,F14)</f>
+        <v>-0.39953585597603669</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ref="U30:AE30" si="28">STANDARDIZE(G30,G13,G14)</f>
+        <v>-2.3138877346995024</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="28"/>
+        <v>-1.0154577505990161</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="28"/>
+        <v>-3.1254984556685588</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="28"/>
+        <v>-2.5809524151552683</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="28"/>
+        <v>-0.67518968317584471</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="28"/>
+        <v>-1.1869531343137021</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="28"/>
+        <v>16.175118127934535</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="28"/>
+        <v>-2.343010630282</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="28"/>
+        <v>-2.4862703963630994</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="28"/>
+        <v>-1.8710772971433134</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="28"/>
+        <v>-0.50948678499809574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>92</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>-3</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>27</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <f>STANDARDIZE(F31,$F$15,$F$16)</f>
+        <v>-1.7133627717629507</v>
+      </c>
+      <c r="U31">
+        <f>STANDARDIZE(G31,$G$15,$G$16)</f>
+        <v>-2.2361426610493909</v>
+      </c>
+      <c r="V31">
+        <f>STANDARDIZE(H31,$H$15,$H$16)</f>
+        <v>-1.4893814096911249</v>
+      </c>
+      <c r="W31">
+        <f>STANDARDIZE(I31,$I$15,$I$16)</f>
+        <v>-1.729772298222769</v>
+      </c>
+      <c r="X31">
+        <f>STANDARDIZE(J31,$J$15,$J$16)</f>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="Y31">
+        <f>STANDARDIZE(K31,$K$15,$K$16)</f>
+        <v>-1.8344032838329423</v>
+      </c>
+      <c r="Z31">
+        <f>STANDARDIZE(L31,$L$15,$L$16)</f>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AA31">
+        <f>STANDARDIZE(M31,$M$15,$M$16)</f>
+        <v>-2.0293617514052036</v>
+      </c>
+      <c r="AB31">
+        <f>STANDARDIZE(N31,$N$15,$N$16)</f>
+        <v>-3.0343808652098589</v>
+      </c>
+      <c r="AC31">
+        <f>STANDARDIZE(O31,$O$15,$O$16)</f>
+        <v>-2.0994530619715266</v>
+      </c>
+      <c r="AD31">
+        <f>STANDARDIZE(P31,$P$15,$P$16)</f>
+        <v>-1.5121885839950491</v>
+      </c>
+      <c r="AE31">
+        <f>STANDARDIZE(Q31,$Q$15,$Q$16)</f>
+        <v>-1.9020236218478617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>86</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>88</v>
+      </c>
+      <c r="O32">
+        <v>36</v>
+      </c>
+      <c r="P32">
+        <v>58</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <f>STANDARDIZE(F32,$F$15,$F$16)</f>
+        <v>-1.4612291197309446</v>
+      </c>
+      <c r="U32">
+        <f>STANDARDIZE(G32,$G$15,$G$16)</f>
+        <v>-1.4474430451281628</v>
+      </c>
+      <c r="V32">
+        <f>STANDARDIZE(H32,$H$15,$H$16)</f>
+        <v>-0.9687634789947237</v>
+      </c>
+      <c r="W32">
+        <f>STANDARDIZE(I32,$I$15,$I$16)</f>
+        <v>-0.75400330948171979</v>
+      </c>
+      <c r="X32">
+        <f>STANDARDIZE(J32,$J$15,$J$16)</f>
+        <v>-1.0313208785295767</v>
+      </c>
+      <c r="Y32">
+        <f>STANDARDIZE(K32,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z32">
+        <f>STANDARDIZE(L32,$L$15,$L$16)</f>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AA32">
+        <f>STANDARDIZE(M32,$M$15,$M$16)</f>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="AB32">
+        <f>STANDARDIZE(N32,$N$15,$N$16)</f>
+        <v>-0.47931318137511009</v>
+      </c>
+      <c r="AC32">
+        <f>STANDARDIZE(O32,$O$15,$O$16)</f>
+        <v>-0.86708928573921307</v>
+      </c>
+      <c r="AD32">
+        <f>STANDARDIZE(P32,$P$15,$P$16)</f>
+        <v>1.1453977437231926</v>
+      </c>
+      <c r="AE32">
+        <f>STANDARDIZE(Q32,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>92</v>
+      </c>
+      <c r="D33">
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>49</v>
+      </c>
+      <c r="O33">
+        <v>21</v>
+      </c>
+      <c r="P33">
+        <v>22</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <f>STANDARDIZE(F33,F13,F14)</f>
+        <v>-1.5334141511482522</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33:AE33" si="29">STANDARDIZE(G33,G13,G14)</f>
+        <v>-3.6608567597881354</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="29"/>
+        <v>-1.1514948121244117</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="29"/>
+        <v>-0.92774715771152239</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="29"/>
+        <v>-4.6232013667111502</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="29"/>
+        <v>0.33659898659798726</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="29"/>
+        <v>-1.1869531343137021</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="29"/>
+        <v>-5.2678881585757562</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="29"/>
+        <v>-1.6801145549604379</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="29"/>
+        <v>-1.5212558297063483</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="29"/>
+        <v>-0.45099671903255173</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="29"/>
+        <v>-1.3608660178238612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>72</v>
+      </c>
+      <c r="O34">
+        <v>15</v>
+      </c>
+      <c r="P34">
+        <v>23</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <f>STANDARDIZE(F34,$F$15,$F$16)</f>
+        <v>-0.11651630889357861</v>
+      </c>
+      <c r="U34">
+        <f>STANDARDIZE(G34,$G$15,$G$16)</f>
+        <v>-1.841792853088777</v>
+      </c>
+      <c r="V34">
+        <f>STANDARDIZE(H34,$H$15,$H$16)</f>
+        <v>-0.3179910656242223</v>
+      </c>
+      <c r="W34">
+        <f>STANDARDIZE(I34,$I$15,$I$16)</f>
+        <v>-0.16854191623709025</v>
+      </c>
+      <c r="X34">
+        <f>STANDARDIZE(J34,$J$15,$J$16)</f>
+        <v>-0.44199466222696143</v>
+      </c>
+      <c r="Y34">
+        <f>STANDARDIZE(K34,$K$15,$K$16)</f>
+        <v>0.93926491165329351</v>
+      </c>
+      <c r="Z34">
+        <f>STANDARDIZE(L34,$L$15,$L$16)</f>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA34">
+        <f>STANDARDIZE(M34,$M$15,$M$16)</f>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="AB34">
+        <f>STANDARDIZE(N34,$N$15,$N$16)</f>
+        <v>-1.1494948689383229</v>
+      </c>
+      <c r="AC34">
+        <f>STANDARDIZE(O34,$O$15,$O$16)</f>
+        <v>-1.5859681552080627</v>
+      </c>
+      <c r="AD34">
+        <f>STANDARDIZE(P34,$P$15,$P$16)</f>
+        <v>-0.54579355573387034</v>
+      </c>
+      <c r="AE34">
+        <f>STANDARDIZE(Q34,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>7</v>
+      </c>
+      <c r="H35" s="7">
+        <v>14</v>
+      </c>
+      <c r="I35" s="7">
+        <v>9</v>
+      </c>
+      <c r="J35" s="7">
+        <v>4</v>
+      </c>
+      <c r="K35" s="7">
+        <v>6</v>
+      </c>
+      <c r="L35" s="7">
+        <v>2</v>
+      </c>
+      <c r="M35" s="7">
+        <v>3</v>
+      </c>
+      <c r="N35" s="7">
+        <v>57</v>
+      </c>
+      <c r="O35" s="7">
+        <v>23</v>
+      </c>
+      <c r="P35" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <f>STANDARDIZE(F35,$F$15,$F$16)</f>
+        <v>-1.0410063663442677</v>
+      </c>
+      <c r="U35">
+        <f>STANDARDIZE(G35,$G$15,$G$16)</f>
+        <v>-2.6304924690100053</v>
+      </c>
+      <c r="V35">
+        <f>STANDARDIZE(H35,$H$15,$H$16)</f>
+        <v>-5.768210027602174E-2</v>
+      </c>
+      <c r="W35">
+        <f>STANDARDIZE(I35,$I$15,$I$16)</f>
+        <v>-0.94915710722992963</v>
+      </c>
+      <c r="X35">
+        <f>STANDARDIZE(J35,$J$15,$J$16)</f>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="Y35">
+        <f>STANDARDIZE(K35,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z35">
+        <f>STANDARDIZE(L35,$L$15,$L$16)</f>
+        <v>-2.2722449695548841</v>
+      </c>
+      <c r="AA35">
+        <f>STANDARDIZE(M35,$M$15,$M$16)</f>
+        <v>-2.0293617514052036</v>
+      </c>
+      <c r="AB35">
+        <f>STANDARDIZE(N35,$N$15,$N$16)</f>
+        <v>-1.7777902010288349</v>
+      </c>
+      <c r="AC35">
+        <f>STANDARDIZE(O35,$O$15,$O$16)</f>
+        <v>-1.3121095382675485</v>
+      </c>
+      <c r="AD35">
+        <f>STANDARDIZE(P35,$P$15,$P$16)</f>
+        <v>-0.20755529584245777</v>
+      </c>
+      <c r="AE35">
+        <f>STANDARDIZE(Q35,$Q$15,$Q$16)</f>
+        <v>-1.9020236218478617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F36" s="6">
+        <f>4/18</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G36" s="6">
+        <f>11/18</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="H36" s="6">
+        <f>7/18</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I36" s="6">
+        <f>13/18</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="J36" s="6">
+        <f>13/18</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="K36" s="6">
+        <f>12/18</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L36" s="6">
+        <f>15/18</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M36" s="6">
+        <f>6/18</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N36" s="6">
+        <f>15/18</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O36" s="6">
+        <f>7/18</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="P36" s="6">
+        <f>6/18</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q36" s="6">
+        <f>11/18</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <f>4/18</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G37" s="4">
+        <f>6/18</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H37" s="4">
+        <f>3/18</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I37" s="4">
+        <f>1/18</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="J37" s="4">
+        <f>2/18</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K37" s="4">
+        <f>2/18</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <f>7/18</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <f>3/18</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P37" s="4">
+        <f>7/18</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>3/18</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S37" t="s">
+        <v>49</v>
+      </c>
+      <c r="T37">
+        <f>AVERAGE(T18:T35)</f>
+        <v>-0.98186627257940118</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ref="U37:AE37" si="30">AVERAGE(U18:U35)</f>
+        <v>-1.7634220410643795</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="30"/>
+        <v>-0.58640921950932146</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="30"/>
+        <v>-0.92679774304001916</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="30"/>
+        <v>-1.4256332623797741</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="30"/>
+        <v>-0.53716032821896842</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="30"/>
+        <v>-1.1170492172045652</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="30"/>
+        <v>2.6700311279813769</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="30"/>
+        <v>-1.4404655722191455</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="30"/>
+        <v>-1.1868810707078303</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="30"/>
+        <v>-0.87450322891507393</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="30"/>
+        <v>-0.96422300363172964</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F38" s="5">
+        <f>10/18</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G38" s="5">
+        <f>1/18</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H38" s="5">
+        <f>8/18</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I38" s="5">
+        <f>4/18</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J38" s="5">
+        <f>3/18</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K38" s="5">
+        <f>4/18</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L38" s="5">
+        <f>3/18</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M38" s="5">
+        <f>5/18</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="N38" s="5">
+        <f>3/18</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O38" s="5">
+        <f>8/18</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="P38" s="5">
+        <f>5/18</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="Q38" s="5">
+        <f>4/18</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="S38" t="s">
+        <v>50</v>
+      </c>
+      <c r="T38">
+        <f>STDEV(T18:T35)</f>
+        <v>0.80726007899240582</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:AE38" si="31">STDEV(U18:U35)</f>
+        <v>1.2517237890276267</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="31"/>
+        <v>0.6958290195583996</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="31"/>
+        <v>0.99070091896610302</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="31"/>
+        <v>1.0610338705278484</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="31"/>
+        <v>0.7800630582907162</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="31"/>
+        <v>0.6789699375827728</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="31"/>
+        <v>12.676405869502544</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="31"/>
+        <v>0.79758642504305477</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="31"/>
+        <v>0.92297949968771098</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="31"/>
+        <v>0.72483799129815674</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="31"/>
+        <v>1.399841146846172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>87</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>25</v>
+      </c>
+      <c r="O40">
+        <v>18</v>
+      </c>
+      <c r="P40">
+        <v>-3</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <f>STANDARDIZE(F40,F13,F14)</f>
+        <v>-1.4389242932172341</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ref="U40:AE47" si="32">STANDARDIZE(G40,G13,G14)</f>
+        <v>-5.0078257848767684</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="32"/>
+        <v>-1.8316801197513899</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="32"/>
+        <v>-3.369693044330452</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="32"/>
+        <v>-2.5809524151552683</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="32"/>
+        <v>-1.6869783529496767</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="32"/>
+        <v>-2.1819567518572018</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="32"/>
+        <v>-3.1235875299247273</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="32"/>
+        <v>-2.6159678377673488</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="32"/>
+        <v>-1.6284796704459874</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="32"/>
+        <v>-1.7658861432091828</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="32"/>
+        <v>-3.0636244834753925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>86</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>64</v>
+      </c>
+      <c r="O41">
+        <v>20</v>
+      </c>
+      <c r="P41">
+        <v>15</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <f>STANDARDIZE(F41,$F$15,$F$16)</f>
+        <v>-1.3771845690536091</v>
+      </c>
+      <c r="U41">
+        <f>STANDARDIZE(G41,$G$15,$G$16)</f>
+        <v>-3.8135418928918474</v>
+      </c>
+      <c r="V41">
+        <f>STANDARDIZE(H41,$H$15,$H$16)</f>
+        <v>-1.4893814096911249</v>
+      </c>
+      <c r="W41">
+        <f>STANDARDIZE(I41,$I$15,$I$16)</f>
+        <v>-1.729772298222769</v>
+      </c>
+      <c r="X41">
+        <f>STANDARDIZE(J41,$J$15,$J$16)</f>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="Y41">
+        <f>STANDARDIZE(K41,$K$15,$K$16)</f>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z41">
+        <f>STANDARDIZE(L41,$L$15,$L$16)</f>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA41">
+        <f>STANDARDIZE(M41,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB41">
+        <f>STANDARDIZE(N41,$N$15,$N$16)</f>
+        <v>-1.4845857127199293</v>
+      </c>
+      <c r="AC41">
+        <f>STANDARDIZE(O41,$O$15,$O$16)</f>
+        <v>-1.4148065196202413</v>
+      </c>
+      <c r="AD41">
+        <f>STANDARDIZE(P41,$P$15,$P$16)</f>
+        <v>-0.93235156703834188</v>
+      </c>
+      <c r="AE41">
+        <f>STANDARDIZE(Q41,$Q$15,$Q$16)</f>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>83</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>49</v>
+      </c>
+      <c r="O42">
+        <v>-2</v>
+      </c>
+      <c r="P42">
+        <v>20</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42:T47" si="33">STANDARDIZE(F42,$F$15,$F$16)</f>
+        <v>-0.95696181566693228</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ref="U42:U47" si="34">STANDARDIZE(G42,$G$15,$G$16)</f>
+        <v>-4.2078917008524614</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ref="V42:V47" si="35">STANDARDIZE(H42,$H$15,$H$16)</f>
+        <v>-0.70845451364652323</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ref="W42:W47" si="36">STANDARDIZE(I42,$I$15,$I$16)</f>
+        <v>-2.5103874892156086</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ref="X42:X47" si="37">STANDARDIZE(J42,$J$15,$J$16)</f>
+        <v>-1.0313208785295767</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42:Y47" si="38">STANDARDIZE(K42,$K$15,$K$16)</f>
+        <v>-0.72493600563844784</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" ref="Z42:Z47" si="39">STANDARDIZE(L42,$L$15,$L$16)</f>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" ref="AA42:AA47" si="40">STANDARDIZE(M42,$M$15,$M$16)</f>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" ref="AB42:AB47" si="41">STANDARDIZE(N42,$N$15,$N$16)</f>
+        <v>-2.1128810448104414</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" ref="AC42:AC47" si="42">STANDARDIZE(O42,$O$15,$O$16)</f>
+        <v>-2.1679177162066554</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" ref="AD42:AD47" si="43">STANDARDIZE(P42,$P$15,$P$16)</f>
+        <v>-0.69075280997304722</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" ref="AE42:AE46" si="44">STANDARDIZE(Q42,$Q$15,$Q$16)</f>
+        <v>-3.3964707532997527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>78</v>
+      </c>
+      <c r="D43">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>26</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>64</v>
+      </c>
+      <c r="O43">
+        <v>53</v>
+      </c>
+      <c r="P43">
+        <v>17</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="33"/>
+        <v>-0.95696181566693228</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="34"/>
+        <v>-4.2078917008524614</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="35"/>
+        <v>-5.768210027602174E-2</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="36"/>
+        <v>2.6611881511119588E-2</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="37"/>
+        <v>-1.0313208785295767</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="38"/>
+        <v>0.38453127255604641</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="39"/>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="40"/>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="41"/>
+        <v>-1.4845857127199293</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="42"/>
+        <v>-0.28513972474062049</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="43"/>
+        <v>-0.83571206421222399</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="44"/>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>79</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>24</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>42</v>
+      </c>
+      <c r="P44">
+        <v>-3</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="33"/>
+        <v>-0.53673906228025547</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="34"/>
+        <v>-2.2361426610493909</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="35"/>
+        <v>-1.2290724443429244</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="36"/>
+        <v>-2.9006950847120283</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="37"/>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="38"/>
+        <v>-1.279669644735695</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="39"/>
+        <v>-2.2722449695548841</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="40"/>
+        <v>-3.0987260275947719</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="41"/>
+        <v>-4.0815397520273793</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="42"/>
+        <v>-0.6616953230338275</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="43"/>
+        <v>-1.8021070924734028</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="44"/>
+        <v>-3.3964707532997527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>90</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>19</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="33"/>
+        <v>-1.0410063663442677</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="34"/>
+        <v>-3.4191920849312334</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="36"/>
+        <v>-1.3394647027263493</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="37"/>
+        <v>-3.9779519600426529</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="39"/>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="43"/>
+        <v>-0.73907256138610611</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="44"/>
+        <v>-1.9020236218478617</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>85</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>23</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>63</v>
+      </c>
+      <c r="O46">
+        <v>24</v>
+      </c>
+      <c r="P46">
+        <v>5</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="33"/>
+        <v>-1.2090954676989385</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="34"/>
+        <v>-3.0248422769706194</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="35"/>
+        <v>-0.18783658295012204</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="36"/>
+        <v>2.6611881511119588E-2</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="37"/>
+        <v>-1.0313208785295767</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="38"/>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="39"/>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="40"/>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="41"/>
+        <v>-1.5264720681926303</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="42"/>
+        <v>-1.2778772111499843</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="43"/>
+        <v>-1.4155490811689313</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="44"/>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>86</v>
+      </c>
+      <c r="D47">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>29</v>
+      </c>
+      <c r="F47">
+        <v>-2</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>22</v>
+      </c>
+      <c r="O47">
+        <v>-11</v>
+      </c>
+      <c r="P47">
+        <v>-4</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="33"/>
+        <v>-1.6293182210856154</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="34"/>
+        <v>-4.2078917008524614</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="35"/>
+        <v>-1.3592269270170245</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="36"/>
+        <v>-2.1200798937191889</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="37"/>
+        <v>-3.9779519600426529</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="38"/>
+        <v>-3.4986042011246838</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="39"/>
+        <v>-2.2722449695548841</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="40"/>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="41"/>
+        <v>-3.2438126425733631</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="42"/>
+        <v>-2.4760086602647338</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="43"/>
+        <v>-1.8504268438864617</v>
+      </c>
+      <c r="AE47">
+        <f>STANDARDIZE(Q47,$Q$15,$Q$16)</f>
+        <v>-1.9020236218478617</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="5">
+        <f>AVERAGE(F40:F47)</f>
+        <v>4.125</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" ref="G48:Q48" si="45">AVERAGE(G40:G47)</f>
+        <v>4.25</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="45"/>
+        <v>7</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="45"/>
+        <v>5.375</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="45"/>
+        <v>3.25</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="45"/>
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="45"/>
+        <v>2.875</v>
+      </c>
+      <c r="M48" s="5">
+        <f t="shared" si="45"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="N48" s="5">
+        <f t="shared" si="45"/>
+        <v>41.285714285714285</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="45"/>
+        <v>20.571428571428573</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" si="45"/>
+        <v>8.25</v>
+      </c>
+      <c r="Q48" s="5">
+        <f t="shared" si="45"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49">
+        <f>STDEV(F40:F47)</f>
+        <v>3.8706773124535787</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49:Q49" si="46">STDEV(G40:G47)</f>
+        <v>1.9820624179302297</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="46"/>
+        <v>5.0662280511902216</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="46"/>
+        <v>5.9266347955648486</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="46"/>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="46"/>
+        <v>2.3704530408864084</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="46"/>
+        <v>0.83452296039628016</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="46"/>
+        <v>1.2535663410560176</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="46"/>
+        <v>24.978085633305884</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="46"/>
+        <v>22.493385271060934</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="46"/>
+        <v>10.620061877678223</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="46"/>
+        <v>1.7268882005337975</v>
+      </c>
+      <c r="S49" t="s">
+        <v>49</v>
+      </c>
+      <c r="T49">
+        <f>AVERAGE(T40:T47)</f>
+        <v>-1.1432739513767232</v>
+      </c>
+      <c r="U49">
+        <f t="shared" ref="U49:AE49" si="47">AVERAGE(U40:U47)</f>
+        <v>-3.7656524754096554</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="47"/>
+        <v>-0.98047629966787586</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="47"/>
+        <v>-1.7396085937380197</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="47"/>
+        <v>-2.1090141450617113</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="47"/>
+        <v>-1.0208659521392656</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="47"/>
+        <v>-1.4074815635342537</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="47"/>
+        <v>-1.2690817687455052</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="47"/>
+        <v>-2.3642635386872888</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="47"/>
+        <v>-1.4159892607802929</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="47"/>
+        <v>-1.2539822704184622</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="47"/>
+        <v>-1.8604178381198166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S50" t="s">
+        <v>44</v>
+      </c>
+      <c r="T50">
+        <f>STDEV(T40:T47)</f>
+        <v>0.34443793973149106</v>
+      </c>
+      <c r="U50">
+        <f t="shared" ref="U50:AE50" si="48">STDEV(U40:U47)</f>
+        <v>0.85692551344294221</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="48"/>
+        <v>0.6760925900862389</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="48"/>
+        <v>1.2617129564892886</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="48"/>
+        <v>1.2632077040498488</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="48"/>
+        <v>1.3012714856658889</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="48"/>
+        <v>0.80099412106906243</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="48"/>
+        <v>1.3462063952969667</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="48"/>
+        <v>1.0081958419609858</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="48"/>
+        <v>0.77470919903052182</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="48"/>
+        <v>0.50780931002161755</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="48"/>
+        <v>1.3364307141113256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="S54" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T54" s="8">
+        <f>_xlfn.T.TEST(T2:T10,T40:T47,2,2)</f>
+        <v>5.5145072726480428E-2</v>
+      </c>
+      <c r="U54" s="9">
+        <f>_xlfn.T.TEST(U2:U10,U40:U47,2,2)</f>
+        <v>4.3977405081288177E-5</v>
+      </c>
+      <c r="V54" s="9">
+        <f>_xlfn.T.TEST(V2:V10,V40:V47,2,2)</f>
+        <v>1.0032649567104937E-2</v>
+      </c>
+      <c r="W54" s="9">
+        <f>_xlfn.T.TEST(W2:W10,W40:W47,2,2)</f>
+        <v>1.5350225918183138E-3</v>
+      </c>
+      <c r="X54" s="9">
+        <f>_xlfn.T.TEST(X2:X10,X40:X47,2,2)</f>
+        <v>1.7497906717238471E-3</v>
+      </c>
+      <c r="Y54" s="9">
+        <f>_xlfn.T.TEST(Y2:Y10,Y40:Y47,2,2)</f>
+        <v>2.1449973453462935E-2</v>
+      </c>
+      <c r="Z54" s="9">
+        <f>_xlfn.T.TEST(Z2:Z10,Z40:Z47,2,2)</f>
+        <v>4.0830972718957742E-4</v>
+      </c>
+      <c r="AA54" s="8">
+        <f>_xlfn.T.TEST(AA2:AA10,AA40:AA47,2,2)</f>
+        <v>9.3997692194821306E-2</v>
+      </c>
+      <c r="AB54" s="9">
+        <f>_xlfn.T.TEST(AB2:AB10,AB40:AB47,2,2)</f>
+        <v>3.9803481252540597E-4</v>
+      </c>
+      <c r="AC54" s="8">
+        <f>_xlfn.T.TEST(AC2:AC10,AC40:AC47,2,2)</f>
+        <v>0.11402352774093191</v>
+      </c>
+      <c r="AD54" s="8">
+        <f>_xlfn.T.TEST(AD2:AD10,AD40:AD47,2,2)</f>
+        <v>4.7537890409860062E-2</v>
+      </c>
+      <c r="AE54" s="9">
+        <f>_xlfn.T.TEST(AE2:AE10,AE40:AE47,2,2)</f>
+        <v>1.0717139617099488E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55">
+        <v>0.22</v>
+      </c>
+      <c r="S55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T55" s="6">
+        <f>_xlfn.T.TEST(T2:T10,T18:T35,2,2)</f>
+        <v>6.2902019898798192E-2</v>
+      </c>
+      <c r="U55" s="6">
+        <f t="shared" ref="U55:AE55" si="49">_xlfn.T.TEST(U2:U10,U18:U35,2,2)</f>
+        <v>0.14604120267540949</v>
+      </c>
+      <c r="V55" s="9">
+        <f t="shared" si="49"/>
+        <v>1.4263662210353365E-2</v>
+      </c>
+      <c r="W55" s="9">
+        <f t="shared" si="49"/>
+        <v>4.8205086841899324E-3</v>
+      </c>
+      <c r="X55" s="9">
+        <f t="shared" si="49"/>
+        <v>6.8055399288605174E-3</v>
+      </c>
+      <c r="Y55" s="9">
+        <f t="shared" si="49"/>
+        <v>1.1979987496421148E-2</v>
+      </c>
+      <c r="Z55" s="9">
+        <f t="shared" si="49"/>
+        <v>1.4696878782898272E-4</v>
+      </c>
+      <c r="AA55" s="6">
+        <f t="shared" si="49"/>
+        <v>0.50076029958434709</v>
+      </c>
+      <c r="AB55" s="9">
+        <f t="shared" si="49"/>
+        <v>2.1104805307362732E-3</v>
+      </c>
+      <c r="AC55" s="6">
+        <f t="shared" si="49"/>
+        <v>0.21759952996350579</v>
+      </c>
+      <c r="AD55" s="6">
+        <f t="shared" si="49"/>
+        <v>0.71416608877603094</v>
+      </c>
+      <c r="AE55" s="9">
+        <f t="shared" si="49"/>
+        <v>2.2399260374249195E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56">
+        <v>0.33</v>
+      </c>
+      <c r="S56" t="s">
+        <v>53</v>
+      </c>
+      <c r="T56" s="6">
+        <f>_xlfn.T.TEST(T18:T35,T40:T47,2,2)</f>
+        <v>0.59468248545622426</v>
+      </c>
+      <c r="U56" s="9">
+        <f t="shared" ref="U56:AE56" si="50">_xlfn.T.TEST(U18:U35,U40:U47,2,2)</f>
+        <v>4.142405635968328E-4</v>
+      </c>
+      <c r="V56" s="6">
+        <f t="shared" si="50"/>
+        <v>0.21303646895789771</v>
+      </c>
+      <c r="W56" s="6">
+        <f t="shared" si="50"/>
+        <v>8.8345888076191259E-2</v>
+      </c>
+      <c r="X56" s="6">
+        <f t="shared" si="50"/>
+        <v>0.165283751545935</v>
+      </c>
+      <c r="Y56" s="6">
+        <f t="shared" si="50"/>
+        <v>0.26191880194094425</v>
+      </c>
+      <c r="Z56" s="6">
+        <f t="shared" si="50"/>
+        <v>0.34975994349410322</v>
+      </c>
+      <c r="AA56" s="6">
+        <f t="shared" si="50"/>
+        <v>0.42633691472050417</v>
+      </c>
+      <c r="AB56" s="9">
+        <f t="shared" si="50"/>
+        <v>2.390489976381335E-2</v>
+      </c>
+      <c r="AC56" s="6">
+        <f t="shared" si="50"/>
+        <v>0.56750566699418326</v>
+      </c>
+      <c r="AD56" s="6">
+        <f t="shared" si="50"/>
+        <v>0.19433235137362281</v>
+      </c>
+      <c r="AE56" s="6">
+        <f t="shared" si="50"/>
+        <v>0.13995484295418473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61">
+        <v>0.83</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F18:F35">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="lessThanOrEqual">
+      <formula>$F$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="greaterThanOrEqual">
+      <formula>$F$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G35">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="lessThanOrEqual">
+      <formula>$G$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="greaterThanOrEqual">
+      <formula>$G$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H35">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThanOrEqual">
+      <formula>$H$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="greaterThanOrEqual">
+      <formula>$H$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I35">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="lessThanOrEqual">
+      <formula>$I$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="greaterThanOrEqual">
+      <formula>$I$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J35">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="lessThanOrEqual">
+      <formula>$J$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThanOrEqual">
+      <formula>$J$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K35">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThanOrEqual">
+      <formula>$K$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThanOrEqual">
+      <formula>$K$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L35">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="lessThanOrEqual">
+      <formula>$L$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThanOrEqual">
+      <formula>$L$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M35">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="lessThanOrEqual">
+      <formula>$M$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="greaterThanOrEqual">
+      <formula>$M$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:N35">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThanOrEqual">
+      <formula>$N$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThanOrEqual">
+      <formula>$N$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O35">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThanOrEqual">
+      <formula>$O$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThanOrEqual">
+      <formula>$O$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:P35">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
+      <formula>$P$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThanOrEqual">
+      <formula>$P$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:Q35">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>$Q$48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
+      <formula>$Q$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>78</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>64</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>17</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>64</v>
+      </c>
+      <c r="O3">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>16</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>64</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>52</v>
+      </c>
+      <c r="N5">
+        <v>81</v>
+      </c>
+      <c r="O5">
+        <v>52</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>19</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>72</v>
+      </c>
+      <c r="O7">
+        <v>26</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>90</v>
+      </c>
+      <c r="O8">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <v>16</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>33</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>-2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>69</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>78</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>64</v>
+      </c>
+      <c r="O11">
+        <v>53</v>
+      </c>
+      <c r="P11">
+        <v>17</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>72</v>
+      </c>
+      <c r="O12">
+        <v>37</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>72</v>
+      </c>
+      <c r="O13">
+        <v>24</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>42</v>
+      </c>
+      <c r="P14">
+        <v>-3</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>22</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>110</v>
+      </c>
+      <c r="O15">
+        <v>37</v>
+      </c>
+      <c r="P15">
+        <v>25</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>42</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>-6</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>101</v>
+      </c>
+      <c r="O17">
+        <v>25</v>
+      </c>
+      <c r="P17">
+        <v>25</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>90</v>
+      </c>
+      <c r="O18">
+        <v>44</v>
+      </c>
+      <c r="P18">
+        <v>13</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>19</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>110</v>
+      </c>
+      <c r="O20">
+        <v>23</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>90</v>
+      </c>
+      <c r="O21">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>19</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>83</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>64</v>
+      </c>
+      <c r="O22">
+        <v>78</v>
+      </c>
+      <c r="P22">
+        <v>31</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>86</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>72</v>
+      </c>
+      <c r="O23">
+        <v>98</v>
+      </c>
+      <c r="P23">
+        <v>25</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>32</v>
+      </c>
+      <c r="O24">
+        <v>-6</v>
+      </c>
+      <c r="P24">
+        <v>-5</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>92</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>-3</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>27</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>-2</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>-11</v>
+      </c>
+      <c r="P26">
+        <v>-4</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>88</v>
+      </c>
+      <c r="O27">
+        <v>36</v>
+      </c>
+      <c r="P27">
+        <v>58</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>49</v>
+      </c>
+      <c r="O28">
+        <v>21</v>
+      </c>
+      <c r="P28">
+        <v>22</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>83</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>72</v>
+      </c>
+      <c r="O29">
+        <v>15</v>
+      </c>
+      <c r="P29">
+        <v>23</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>90</v>
+      </c>
+      <c r="O30">
+        <v>45</v>
+      </c>
+      <c r="P30">
+        <v>-1</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>57</v>
+      </c>
+      <c r="O31">
+        <v>23</v>
+      </c>
+      <c r="P31">
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>89</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>19</v>
+      </c>
+      <c r="I32">
+        <v>18</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32">
+        <v>88</v>
+      </c>
+      <c r="P32">
+        <v>24</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>29</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>64</v>
+      </c>
+      <c r="O33">
+        <v>69</v>
+      </c>
+      <c r="P33">
+        <v>16</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(F2:F33)</f>
+        <v>8.25</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:Q34" si="0">AVERAGE(G2:G33)</f>
+        <v>9.03125</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>11.35483870967742</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>10.46875</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>4.6875</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>5.645161290322581</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>3.46875</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>6.129032258064516</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>67.967741935483872</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>31.032258064516128</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>15.375</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>5.59375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>83</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>49</v>
+      </c>
+      <c r="O37">
+        <v>-2</v>
+      </c>
+      <c r="P37">
+        <v>20</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>85</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>63</v>
+      </c>
+      <c r="O38">
+        <v>24</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39">
+        <f>AVERAGE(F37:F38)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G39">
+        <f>AVERAGE(G37:G38)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H39">
+        <f>AVERAGE(H37:H38)</f>
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(I37:I38)</f>
+        <v>7.5</v>
+      </c>
+      <c r="J39">
+        <f>AVERAGE(J37:J38)</f>
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <f>AVERAGE(K37:K38)</f>
+        <v>5.5</v>
+      </c>
+      <c r="L39">
+        <f>AVERAGE(L37:L38)</f>
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <f>AVERAGE(M37:M38)</f>
+        <v>4.5</v>
+      </c>
+      <c r="N39">
+        <f>AVERAGE(N37:N38)</f>
+        <v>56</v>
+      </c>
+      <c r="O39">
+        <f>AVERAGE(O37:O38)</f>
+        <v>11</v>
+      </c>
+      <c r="P39">
+        <f>AVERAGE(P37:P38)</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q39">
+        <f>AVERAGE(Q37:Q38)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>87</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>25</v>
+      </c>
+      <c r="O43">
+        <v>18</v>
+      </c>
+      <c r="P43">
+        <v>-3</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>